--- a/Modelos em Python/14_Erros_test.xlsx
+++ b/Modelos em Python/14_Erros_test.xlsx
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.169927446459778</v>
+        <v>5.295338645092267</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3516584968413304</v>
+        <v>0.3610930380113464</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1330437650618258</v>
+        <v>0.1362523454040878</v>
       </c>
     </row>
     <row r="8">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.695687961015942</v>
+        <v>5.72000466191806</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3814505280537526</v>
+        <v>0.3831140813348473</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1535317680192957</v>
+        <v>0.1540278396394289</v>
       </c>
     </row>
     <row r="10">

--- a/Modelos em Python/14_Erros_test.xlsx
+++ b/Modelos em Python/14_Erros_test.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>Decision Tree Regressor</t>
         </is>
       </c>
       <c r="B10" t="n">

--- a/Modelos em Python/14_Erros_test.xlsx
+++ b/Modelos em Python/14_Erros_test.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.502269660932908</v>
+        <v>11.09010332396779</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3778696137730636</v>
+        <v>0.7437679762778389</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1391650268980711</v>
+        <v>0.257815794202897</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.74265840590358</v>
+        <v>11.08520613122452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3843597609017044</v>
+        <v>0.7413929318071631</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1546229064862538</v>
+        <v>0.2568830997797333</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.605844389595309</v>
+        <v>10.86068391335309</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3852677078723222</v>
+        <v>0.7295341835576461</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1406361424881719</v>
+        <v>0.2527399805980145</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.05917805641425</v>
+        <v>11.08312518465057</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3440577984903849</v>
+        <v>0.7432423111050515</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1279938130352631</v>
+        <v>0.2577081371394207</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.967520222595997</v>
+        <v>11.06963772361813</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3372663663126825</v>
+        <v>0.7419423775004403</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1273200127281723</v>
+        <v>0.2572602386998232</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.295338645092267</v>
+        <v>11.20135122090049</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3610930380113464</v>
+        <v>0.7507072173771716</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1362523454040878</v>
+        <v>0.2594799709155278</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.732820839250665</v>
+        <v>11.0860886637562</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3835362955395769</v>
+        <v>0.741774644881998</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1545978234827863</v>
+        <v>0.2569760692896627</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.72000466191806</v>
+        <v>11.22053686446829</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3831140813348473</v>
+        <v>0.7507793164677832</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1540278396394289</v>
+        <v>0.2597076911034231</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.556874199691354</v>
+        <v>6.091618763296601</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5814204975661607</v>
+        <v>0.5348687460151761</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1466317807477452</v>
+        <v>0.1409736726368126</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.79767051391346</v>
+        <v>10.91795226754923</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5730139132180107</v>
+        <v>0.8159401644797795</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2069747242822547</v>
+        <v>0.2845337976859977</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.936738003079655</v>
+        <v>11.45569692864402</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5848254815496579</v>
+        <v>0.8649336952820281</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2093744549576717</v>
+        <v>0.2955922917354388</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.389914096463112</v>
+        <v>8.433818906745774</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5432610763439671</v>
+        <v>0.6064841412003724</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1733014608688531</v>
+        <v>0.1920908270383936</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/14_Erros_test.xlsx
+++ b/Modelos em Python/14_Erros_test.xlsx
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.091618763296601</v>
+        <v>6.357833981289806</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5348687460151761</v>
+        <v>0.5582616415148536</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1409736726368126</v>
+        <v>0.1443469304819732</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.91795226754923</v>
+        <v>10.68333645036576</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8159401644797795</v>
+        <v>0.7948415859519254</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2845337976859977</v>
+        <v>0.279897817027452</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.45569692864402</v>
+        <v>11.13439140575586</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8649336952820281</v>
+        <v>0.8355253427024574</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2955922917354388</v>
+        <v>0.2886315899871515</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.433818906745774</v>
+        <v>8.480673402151302</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6064841412003724</v>
+        <v>0.6107633715902669</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1920908270383936</v>
+        <v>0.1927287322095202</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/14_Erros_test.xlsx
+++ b/Modelos em Python/14_Erros_test.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.72062839228332</v>
+        <v>10.73421271406672</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7981951605210938</v>
+        <v>0.7994121067096066</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2806565033502714</v>
+        <v>0.2809029799861818</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/14_Erros_test.xlsx
+++ b/Modelos em Python/14_Erros_test.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree Regressor</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,17 +597,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Random Forest Regressor</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.73421271406672</v>
+        <v>10.71643704279012</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7994121067096066</v>
+        <v>0.7978236174537349</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2809029799861818</v>
+        <v>0.2805946343492925</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/14_Erros_test.xlsx
+++ b/Modelos em Python/14_Erros_test.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.71643704279012</v>
+        <v>10.69219649304589</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7978236174537349</v>
+        <v>0.795640389391398</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2805946343492925</v>
+        <v>0.2800734202634381</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/14_Erros_test.xlsx
+++ b/Modelos em Python/14_Erros_test.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DTR</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,23 +597,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RFR</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.69219649304589</v>
+        <v>10.74480638367668</v>
       </c>
       <c r="C11" t="n">
-        <v>0.795640389391398</v>
+        <v>0.8003679351983231</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2800734202634381</v>
+        <v>0.2811434631374531</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBRegressor</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -629,7 +629,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LGBMRegressor</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/14_Erros_test.xlsx
+++ b/Modelos em Python/14_Erros_test.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.09010332396779</v>
+        <v>11.0885541603753</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7437679762778389</v>
+        <v>0.7436539452934702</v>
       </c>
       <c r="D2" t="n">
-        <v>0.257815794202897</v>
+        <v>0.2577833471088977</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.2281287292687</v>
+        <v>11.23417431486841</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7515117008640252</v>
+        <v>0.7519556885412572</v>
       </c>
       <c r="D3" t="n">
-        <v>0.259965089297747</v>
+        <v>0.2600592794604851</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.86068391335309</v>
+        <v>8.719045958675945</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7295341835576461</v>
+        <v>0.5939424784335339</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2527399805980145</v>
+        <v>0.2031670283926831</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.08312518465057</v>
+        <v>11.08667289639226</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7432423111050515</v>
+        <v>0.7435051623982871</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2577081371394207</v>
+        <v>0.2577394735108393</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.06963772361813</v>
+        <v>11.08797603753848</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7419423775004403</v>
+        <v>0.7432470021683234</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2572602386998232</v>
+        <v>0.2576332948440533</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.20135122090049</v>
+        <v>11.04652705296986</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7507072173771716</v>
+        <v>0.7391630674517263</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2594799709155278</v>
+        <v>0.254501058101843</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.23752587505206</v>
+        <v>11.22219610175122</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7520030343659952</v>
+        <v>0.7510385030482555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2601556246734719</v>
+        <v>0.2598722852973708</v>
       </c>
     </row>
     <row r="9">
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.25035907398317</v>
+        <v>11.21677328825388</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7531475048985249</v>
+        <v>0.750736618560801</v>
       </c>
       <c r="D9" t="n">
-        <v>0.260522489083419</v>
+        <v>0.2596014895222755</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,39 +597,39 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.74480638367668</v>
+        <v>10.75935535990074</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8003679351983231</v>
+        <v>0.8016710103711632</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2811434631374531</v>
+        <v>0.2814280435390377</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.00410879455692</v>
+        <v>10.92805477171319</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8238002294616054</v>
+        <v>0.8169702638095836</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2864896324318712</v>
+        <v>0.2849640106942419</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/14_Erros_test.xlsx
+++ b/Modelos em Python/14_Erros_test.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.0885541603753</v>
+        <v>22.15989485729786</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7436539452934702</v>
+        <v>0.7430741280215034</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2577833471088977</v>
+        <v>0.2575236729252247</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.23417431486841</v>
+        <v>22.46745635474507</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7519556885412572</v>
+        <v>0.7517762525864089</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2600592794604851</v>
+        <v>0.2600170133992477</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.719045958675945</v>
+        <v>20.40431167130144</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5939424784335339</v>
+        <v>0.6894890529092336</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2031670283926831</v>
+        <v>0.2375327602205893</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.08667289639226</v>
+        <v>22.17873394770735</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7435051623982871</v>
+        <v>0.7437174188989815</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2577394735108393</v>
+        <v>0.2577964292869601</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.08797603753848</v>
+        <v>23.05273582134766</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7432470021683234</v>
+        <v>0.7706706342971543</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2576332948440533</v>
+        <v>0.2666275282065703</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.04652705296986</v>
+        <v>22.28552603108128</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7391630674517263</v>
+        <v>0.7455925973814569</v>
       </c>
       <c r="D7" t="n">
-        <v>0.254501058101843</v>
+        <v>0.2581360536938922</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.22219610175122</v>
+        <v>22.46250324981319</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7510385030482555</v>
+        <v>0.7516461002303564</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2598722852973708</v>
+        <v>0.2600551110113092</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.21677328825388</v>
+        <v>22.45415549494658</v>
       </c>
       <c r="C9" t="n">
-        <v>0.750736618560801</v>
+        <v>0.7513591039201308</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2596014895222755</v>
+        <v>0.2599912764390444</v>
       </c>
     </row>
     <row r="10">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.357833981289806</v>
+        <v>12.71566796257961</v>
       </c>
       <c r="C10" t="n">
         <v>0.5582616415148536</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.75935535990074</v>
+        <v>21.45603979545104</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8016710103711632</v>
+        <v>0.7988557692537319</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2814280435390377</v>
+        <v>0.2807927218759519</v>
       </c>
     </row>
     <row r="12">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.92805477171319</v>
+        <v>21.85610954342638</v>
       </c>
       <c r="C12" t="n">
         <v>0.8169702638095836</v>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.445687016107938</v>
+        <v>16.89137403221588</v>
       </c>
       <c r="C13" t="n">
         <v>0.608708523525723</v>

--- a/Modelos em Python/14_Erros_test.xlsx
+++ b/Modelos em Python/14_Erros_test.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/14_Erros_test.xlsx
+++ b/Modelos em Python/14_Erros_test.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="C11" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
     </row>
     <row r="12">
